--- a/evaluation/dstc7-task2-automatic_scores.xlsx
+++ b/evaluation/dstc7-task2-automatic_scores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgalley\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proj\dstc7\reddit\main\official\DSTC7-End-to-End-Conversation-Modeling\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B93EF18-3F8B-4AE4-8B02-967DC98DDA78}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391D5573-5356-4061-AFCC-E791296027A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1518,15 +1518,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1542,20 +1533,29 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2430,9 +2430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2513,7 +2511,7 @@
       <c r="B2" s="82">
         <v>2208</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="126" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="121" t="s">
@@ -2575,7 +2573,7 @@
       <c r="B3" s="82">
         <v>2208</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="127" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="122" t="s">
@@ -2637,7 +2635,7 @@
       <c r="B4" s="82">
         <v>2208</v>
       </c>
-      <c r="C4" s="130"/>
+      <c r="C4" s="127"/>
       <c r="D4" s="122"/>
       <c r="E4" s="2">
         <v>0.84889999999999999</v>
@@ -2695,7 +2693,7 @@
       <c r="B5" s="83">
         <v>2208</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="127" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="122" t="s">
@@ -2757,7 +2755,7 @@
       <c r="B6" s="84">
         <v>2208</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="128" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="123" t="s">
@@ -2819,7 +2817,7 @@
       <c r="B7" s="85">
         <v>2208</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="129" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="124" t="s">
@@ -2881,7 +2879,7 @@
       <c r="B8" s="86">
         <v>2208</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="130" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="125" t="s">
@@ -2943,7 +2941,7 @@
       <c r="B9" s="87">
         <v>2208</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="128" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="123" t="s">
@@ -3005,7 +3003,7 @@
       <c r="B10" s="86">
         <v>2208</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="130" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="125" t="s">
@@ -3067,7 +3065,7 @@
       <c r="B11" s="84">
         <v>2208</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="128" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="123" t="s">
@@ -3129,7 +3127,7 @@
       <c r="B12" s="85">
         <v>2208</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="129" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="124" t="s">
@@ -3191,7 +3189,7 @@
       <c r="B13" s="85">
         <v>2208</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="129" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="124" t="s">
@@ -3253,7 +3251,7 @@
       <c r="B14" s="85">
         <v>2208</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="129" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="124" t="s">
@@ -3315,7 +3313,7 @@
       <c r="B15" s="86">
         <v>2208</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="130" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="125" t="s">
@@ -3377,7 +3375,7 @@
       <c r="B16" s="84">
         <v>2208</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="128" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="123" t="s">
@@ -3439,7 +3437,7 @@
       <c r="B17" s="85">
         <v>2208</v>
       </c>
-      <c r="C17" s="132" t="s">
+      <c r="C17" s="129" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="124" t="s">
@@ -3501,7 +3499,7 @@
       <c r="B18" s="85">
         <v>2208</v>
       </c>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="129" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="124" t="s">
@@ -3563,7 +3561,7 @@
       <c r="B19" s="85">
         <v>2208</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="129" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="124" t="s">
@@ -3625,7 +3623,7 @@
       <c r="B20" s="85">
         <v>2208</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="129" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="124" t="s">
@@ -3687,7 +3685,7 @@
       <c r="B21" s="85">
         <v>2208</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="129" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="124" t="s">
@@ -3749,7 +3747,7 @@
       <c r="B22" s="86">
         <v>2208</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="130" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="125" t="s">
@@ -3811,7 +3809,7 @@
       <c r="B23" s="84">
         <v>2208</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="128" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="123" t="s">
@@ -3873,7 +3871,7 @@
       <c r="B24" s="85">
         <v>2208</v>
       </c>
-      <c r="C24" s="132" t="s">
+      <c r="C24" s="129" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="124" t="s">
@@ -3935,7 +3933,7 @@
       <c r="B25" s="85">
         <v>2208</v>
       </c>
-      <c r="C25" s="132" t="s">
+      <c r="C25" s="129" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="124" t="s">
@@ -3997,7 +3995,7 @@
       <c r="B26" s="86">
         <v>2208</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="130" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="125" t="s">
@@ -4059,7 +4057,7 @@
       <c r="B27" s="84">
         <v>2208</v>
       </c>
-      <c r="C27" s="131" t="s">
+      <c r="C27" s="128" t="s">
         <v>67</v>
       </c>
       <c r="D27" s="123" t="s">
@@ -4121,7 +4119,7 @@
       <c r="B28" s="85">
         <v>2208</v>
       </c>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="129" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="124" t="s">
@@ -4183,7 +4181,7 @@
       <c r="B29" s="86">
         <v>2208</v>
       </c>
-      <c r="C29" s="133" t="s">
+      <c r="C29" s="130" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="125" t="s">
@@ -4245,7 +4243,7 @@
       <c r="B30" s="85">
         <v>2208</v>
       </c>
-      <c r="C30" s="132" t="s">
+      <c r="C30" s="129" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="124" t="s">
@@ -4307,7 +4305,7 @@
       <c r="B31" s="85">
         <v>2208</v>
       </c>
-      <c r="C31" s="132" t="s">
+      <c r="C31" s="129" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="124" t="s">
@@ -4369,10 +4367,10 @@
       <c r="B32" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="134" t="s">
+      <c r="C32" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="126" t="s">
+      <c r="D32" s="134" t="s">
         <v>67</v>
       </c>
       <c r="E32" s="5">
@@ -4449,7 +4447,7 @@
       <c r="C33" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="127" t="s">
+      <c r="D33" s="136" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="10">
@@ -4523,10 +4521,10 @@
       <c r="B34" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="136" t="s">
+      <c r="C34" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="128" t="s">
+      <c r="D34" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="56">
@@ -4594,24 +4592,24 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="138" t="s">
+      <c r="A40" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="138"/>
-      <c r="M40" s="138"/>
-      <c r="N40" s="138"/>
-      <c r="O40" s="138"/>
-      <c r="P40" s="138"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
+      <c r="P40" s="132"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -4659,24 +4657,24 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="137" t="s">
+      <c r="A51" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="137"/>
-      <c r="L51" s="137"/>
-      <c r="M51" s="137"/>
-      <c r="N51" s="137"/>
-      <c r="O51" s="137"/>
-      <c r="P51" s="137"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="131"/>
+      <c r="K51" s="131"/>
+      <c r="L51" s="131"/>
+      <c r="M51" s="131"/>
+      <c r="N51" s="131"/>
+      <c r="O51" s="131"/>
+      <c r="P51" s="131"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">

--- a/evaluation/dstc7-task2-automatic_scores.xlsx
+++ b/evaluation/dstc7-task2-automatic_scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proj\dstc7\reddit\main\official\DSTC7-End-to-End-Conversation-Modeling\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391D5573-5356-4061-AFCC-E791296027A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6C4898-4BD2-4E5C-B91D-80391F097F36}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
   <si>
     <t>n_lines</t>
   </si>
@@ -677,7 +677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -846,6 +846,17 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -854,6 +865,96 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -862,7 +963,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -873,48 +983,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -925,16 +994,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -946,7 +1006,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -956,23 +1016,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -980,27 +1029,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1012,15 +1043,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1034,147 +1056,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1367,7 +1252,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1404,133 +1289,95 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="16" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="16" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1539,24 +1386,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1604,61 +1482,11 @@
   </cellStyles>
   <dxfs count="39">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
           <color indexed="64"/>
         </right>
         <vertical/>
@@ -1676,110 +1504,31 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="1" tint="0.249977111117893"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <vertical/>
       </border>
     </dxf>
@@ -1805,24 +1554,6 @@
       <numFmt numFmtId="165" formatCode="0.0%"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.0%"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1831,24 +1562,6 @@
         <right/>
         <vertical/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1861,64 +1574,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1928,6 +1587,74 @@
         </left>
         <right/>
         <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1960,22 +1687,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1996,15 +1712,22 @@
       </font>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2025,15 +1748,22 @@
       </font>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2054,18 +1784,166 @@
       </font>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -2106,26 +1984,26 @@
     <sortCondition ref="A6"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Name" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="n_lines" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="21" xr3:uid="{850FA4B3-08A9-4279-8D12-41F744613A03}" name="human (relevance)" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="22" xr3:uid="{CB45CA98-5FC9-4480-8592-4346BF960558}" name="human (interest)" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="nist1" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="nist2" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nist3" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="nist4" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="bleu1" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="bleu2" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="bleu3" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="bleu4" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="meteor" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="entropy1" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="entropy2" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="entropy3" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="entropy4" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="div1" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="div2" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="avg_len" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Name" dataDxfId="19" totalsRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="n_lines" dataDxfId="0" totalsRowDxfId="34"/>
+    <tableColumn id="21" xr3:uid="{850FA4B3-08A9-4279-8D12-41F744613A03}" name="human (relevance)" dataDxfId="2" totalsRowDxfId="33"/>
+    <tableColumn id="22" xr3:uid="{CB45CA98-5FC9-4480-8592-4346BF960558}" name="human (interest)" dataDxfId="1" totalsRowDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="nist1" dataDxfId="11" totalsRowDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="nist2" dataDxfId="10" totalsRowDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nist3" dataDxfId="9" totalsRowDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="nist4" dataDxfId="8" totalsRowDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="bleu1" dataDxfId="7" totalsRowDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="bleu2" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="bleu3" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="bleu4" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="meteor" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="entropy1" dataDxfId="18" totalsRowDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="entropy2" dataDxfId="17" totalsRowDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="entropy3" dataDxfId="16" totalsRowDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="entropy4" dataDxfId="15" totalsRowDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="div1" dataDxfId="14" totalsRowDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="div2" dataDxfId="13" totalsRowDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="avg_len" dataDxfId="12" totalsRowDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2430,7 +2308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2446,137 +2326,137 @@
       <c r="A1" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="119" t="s">
         <v>68</v>
       </c>
       <c r="D1" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="104" t="s">
+      <c r="L1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="105" t="s">
+      <c r="M1" s="98" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="101" t="s">
+      <c r="O1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="101" t="s">
+      <c r="P1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="106" t="s">
+      <c r="Q1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="101" t="s">
+      <c r="R1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="107" t="s">
+      <c r="S1" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="100" t="s">
+      <c r="T1" s="93" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="82">
+      <c r="B2" s="124">
         <v>2208</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="C2" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="111">
+      <c r="E2" s="72">
         <v>0.17469999999999999</v>
       </c>
-      <c r="F2" s="111">
+      <c r="F2" s="72">
         <v>0.18260000000000001</v>
       </c>
-      <c r="G2" s="111">
+      <c r="G2" s="72">
         <v>0.1837</v>
       </c>
-      <c r="H2" s="112">
+      <c r="H2" s="73">
         <v>0.18429999999999999</v>
       </c>
-      <c r="I2" s="113">
+      <c r="I2" s="74">
         <v>0.39710000000000001</v>
       </c>
-      <c r="J2" s="114">
+      <c r="J2" s="74">
         <v>0.12770000000000001</v>
       </c>
-      <c r="K2" s="115">
+      <c r="K2" s="75">
         <v>6.0600000000000001E-2</v>
       </c>
-      <c r="L2" s="115">
+      <c r="L2" s="75">
         <v>2.87E-2</v>
       </c>
-      <c r="M2" s="116">
+      <c r="M2" s="76">
         <v>7.4758471320869893E-2</v>
       </c>
-      <c r="N2" s="117">
+      <c r="N2" s="72">
         <v>2.07944154167983</v>
       </c>
-      <c r="O2" s="111">
+      <c r="O2" s="72">
         <v>1.9459101490553099</v>
       </c>
-      <c r="P2" s="111">
+      <c r="P2" s="72">
         <v>1.7917594692280501</v>
       </c>
-      <c r="Q2" s="112">
+      <c r="Q2" s="73">
         <v>1.6094379124341001</v>
       </c>
-      <c r="R2" s="111">
+      <c r="R2" s="72">
         <v>4.5289855072463698E-4</v>
       </c>
-      <c r="S2" s="118">
+      <c r="S2" s="72">
         <v>4.5289855072463698E-4</v>
       </c>
-      <c r="T2" s="119">
+      <c r="T2" s="102">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="82">
+      <c r="B3" s="125">
         <v>2208</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="78" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="2">
@@ -2591,7 +2471,7 @@
       <c r="H3" s="3">
         <v>1.6365000000000001</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="14">
         <v>0.26400000000000001</v>
       </c>
       <c r="J3" s="14">
@@ -2603,10 +2483,10 @@
       <c r="L3" s="27">
         <v>8.6E-3</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="41">
         <v>5.9100308896303702E-2</v>
       </c>
-      <c r="N3" s="62">
+      <c r="N3" s="13">
         <v>6.4934999911856899</v>
       </c>
       <c r="O3" s="13">
@@ -2621,22 +2501,22 @@
       <c r="R3" s="13">
         <v>0.159598820058997</v>
       </c>
-      <c r="S3" s="63">
+      <c r="S3" s="13">
         <v>0.64655065103194098</v>
       </c>
-      <c r="T3" s="93">
+      <c r="T3" s="103">
         <v>19.191576086956498</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="125">
         <v>2208</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="122"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="2">
         <v>0.84889999999999999</v>
       </c>
@@ -2649,7 +2529,7 @@
       <c r="H4" s="3">
         <v>0.91559999999999997</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="15">
         <v>0.4516</v>
       </c>
       <c r="J4" s="15">
@@ -2661,10 +2541,10 @@
       <c r="L4" s="27">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="41">
         <v>6.95598058571123E-2</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="2">
         <v>3.78328265739313</v>
       </c>
       <c r="O4" s="2">
@@ -2679,24 +2559,24 @@
       <c r="R4" s="2">
         <v>1.44364242087729E-2</v>
       </c>
-      <c r="S4" s="65">
+      <c r="S4" s="2">
         <v>4.7535958500353602E-2</v>
       </c>
-      <c r="T4" s="93">
+      <c r="T4" s="103">
         <v>10.603713768115901</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B5" s="126">
         <v>2208</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="78" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="2">
@@ -2711,7 +2591,7 @@
       <c r="H5" s="3">
         <v>2.65</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="16">
         <v>0.34079999999999999</v>
       </c>
       <c r="J5" s="16">
@@ -2723,10 +2603,10 @@
       <c r="L5" s="28">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="M5" s="50">
+      <c r="M5" s="42">
         <v>8.3141634045726595E-2</v>
       </c>
-      <c r="N5" s="66">
+      <c r="N5" s="4">
         <v>6.5893229032515404</v>
       </c>
       <c r="O5" s="4">
@@ -2735,30 +2615,30 @@
       <c r="P5" s="4">
         <v>10.4100912659437</v>
       </c>
-      <c r="Q5" s="48">
+      <c r="Q5" s="40">
         <v>10.4449996225368</v>
       </c>
       <c r="R5" s="4">
         <v>0.16663044790534801</v>
       </c>
-      <c r="S5" s="67">
+      <c r="S5" s="4">
         <v>0.67014384819424599</v>
       </c>
-      <c r="T5" s="94">
+      <c r="T5" s="104">
         <v>18.7567934782608</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="84">
+      <c r="B6" s="127">
         <v>2208</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="79" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="5">
@@ -2773,7 +2653,7 @@
       <c r="H6" s="6">
         <v>0.75090000000000001</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="17">
         <v>0.38829999999999998</v>
       </c>
       <c r="J6" s="17">
@@ -2785,10 +2665,10 @@
       <c r="L6" s="29">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="43">
         <v>5.6328557212535199E-2</v>
       </c>
-      <c r="N6" s="68">
+      <c r="N6" s="5">
         <v>5.1198061326123696</v>
       </c>
       <c r="O6" s="5">
@@ -2803,24 +2683,24 @@
       <c r="R6" s="5">
         <v>9.5807091709084594E-2</v>
       </c>
-      <c r="S6" s="69">
+      <c r="S6" s="5">
         <v>0.27553161056546199</v>
       </c>
-      <c r="T6" s="95">
+      <c r="T6" s="105">
         <v>10.499094202898499</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="128">
         <v>2208</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="7">
@@ -2835,7 +2715,7 @@
       <c r="H7" s="8">
         <v>0.83379999999999999</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="18">
         <v>0.37140000000000001</v>
       </c>
       <c r="J7" s="18">
@@ -2847,10 +2727,10 @@
       <c r="L7" s="30">
         <v>1.38E-2</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="44">
         <v>5.7042108119136903E-2</v>
       </c>
-      <c r="N7" s="70">
+      <c r="N7" s="7">
         <v>5.2540244633769602</v>
       </c>
       <c r="O7" s="7">
@@ -2865,24 +2745,24 @@
       <c r="R7" s="9">
         <v>0.121468455704642</v>
       </c>
-      <c r="S7" s="71">
+      <c r="S7" s="7">
         <v>0.30229463056447903</v>
       </c>
-      <c r="T7" s="96">
+      <c r="T7" s="106">
         <v>10.8686594202898</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="86">
+      <c r="B8" s="129">
         <v>2208</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="81" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="11">
@@ -2897,7 +2777,7 @@
       <c r="H8" s="12">
         <v>1.1229</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="20">
         <v>0.36049999999999999</v>
       </c>
       <c r="J8" s="20">
@@ -2909,10 +2789,10 @@
       <c r="L8" s="31">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="45">
         <v>5.4811382157126297E-2</v>
       </c>
-      <c r="N8" s="72">
+      <c r="N8" s="11">
         <v>5.47988150663139</v>
       </c>
       <c r="O8" s="11">
@@ -2927,24 +2807,24 @@
       <c r="R8" s="11">
         <v>9.7389142146705299E-2</v>
       </c>
-      <c r="S8" s="73">
+      <c r="S8" s="11">
         <v>0.31921101294431797</v>
       </c>
-      <c r="T8" s="97">
+      <c r="T8" s="107">
         <v>12.021286231884</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="87">
+      <c r="B9" s="130">
         <v>2208</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="79" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="21">
@@ -2956,10 +2836,10 @@
       <c r="G9" s="21">
         <v>2.5219999999999998</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="39">
         <v>2.5230000000000001</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="113">
         <v>0.41220000000000001</v>
       </c>
       <c r="J9" s="22">
@@ -2971,10 +2851,10 @@
       <c r="L9" s="33">
         <v>1.83E-2</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9" s="46">
         <v>8.0734113337266794E-2</v>
       </c>
-      <c r="N9" s="74">
+      <c r="N9" s="24">
         <v>5.3831701271770998</v>
       </c>
       <c r="O9" s="24">
@@ -2989,24 +2869,24 @@
       <c r="R9" s="24">
         <v>0.108939634274084</v>
       </c>
-      <c r="S9" s="75">
+      <c r="S9" s="24">
         <v>0.324851786572664</v>
       </c>
-      <c r="T9" s="98">
+      <c r="T9" s="108">
         <v>15.132699275362301</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="129">
         <v>2208</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="81" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="11">
@@ -3021,7 +2901,7 @@
       <c r="H10" s="12">
         <v>1.7706</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="114">
         <v>0.41310000000000002</v>
       </c>
       <c r="J10" s="23">
@@ -3033,10 +2913,10 @@
       <c r="L10" s="34">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="M10" s="53">
+      <c r="M10" s="45">
         <v>7.6416871295144795E-2</v>
       </c>
-      <c r="N10" s="72">
+      <c r="N10" s="11">
         <v>5.0685576575493902</v>
       </c>
       <c r="O10" s="11">
@@ -3051,24 +2931,24 @@
       <c r="R10" s="11">
         <v>9.4410554688608303E-2</v>
       </c>
-      <c r="S10" s="73">
+      <c r="S10" s="11">
         <v>0.26739264275819602</v>
       </c>
-      <c r="T10" s="97">
+      <c r="T10" s="107">
         <v>12.769927536231799</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="127">
         <v>2208</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="79" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="5">
@@ -3083,7 +2963,7 @@
       <c r="H11" s="6">
         <v>1.5154000000000001</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="17">
         <v>0.36840000000000001</v>
       </c>
       <c r="J11" s="17">
@@ -3095,10 +2975,10 @@
       <c r="L11" s="29">
         <v>1.32E-2</v>
       </c>
-      <c r="M11" s="51">
+      <c r="M11" s="43">
         <v>6.4318440579414202E-2</v>
       </c>
-      <c r="N11" s="68">
+      <c r="N11" s="5">
         <v>4.4063325813054801</v>
       </c>
       <c r="O11" s="5">
@@ -3113,24 +2993,24 @@
       <c r="R11" s="5">
         <v>5.3385742361979599E-2</v>
       </c>
-      <c r="S11" s="69">
+      <c r="S11" s="5">
         <v>0.17088877681654099</v>
       </c>
-      <c r="T11" s="95">
+      <c r="T11" s="105">
         <v>12.674365942028899</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="128">
         <v>2208</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="124" t="s">
+      <c r="D12" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="7">
@@ -3145,7 +3025,7 @@
       <c r="H12" s="8">
         <v>2.1242000000000001</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="18">
         <v>0.3236</v>
       </c>
       <c r="J12" s="18">
@@ -3157,10 +3037,10 @@
       <c r="L12" s="30">
         <v>1.32E-2</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M12" s="44">
         <v>6.8122567072380402E-2</v>
       </c>
-      <c r="N12" s="70">
+      <c r="N12" s="7">
         <v>4.2394881368650301</v>
       </c>
       <c r="O12" s="7">
@@ -3175,24 +3055,24 @@
       <c r="R12" s="7">
         <v>3.7928458793260802E-2</v>
       </c>
-      <c r="S12" s="71">
+      <c r="S12" s="7">
         <v>0.12419340581631701</v>
       </c>
-      <c r="T12" s="96">
+      <c r="T12" s="106">
         <v>16.370923913043399</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="128">
         <v>2208</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="124" t="s">
+      <c r="D13" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="7">
@@ -3207,7 +3087,7 @@
       <c r="H13" s="8">
         <v>1.1995</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="18">
         <v>0.37859999999999999</v>
       </c>
       <c r="J13" s="18">
@@ -3219,10 +3099,10 @@
       <c r="L13" s="30">
         <v>1.66E-2</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="44">
         <v>6.2350626654515302E-2</v>
       </c>
-      <c r="N13" s="70">
+      <c r="N13" s="7">
         <v>4.3861875196094697</v>
       </c>
       <c r="O13" s="7">
@@ -3237,24 +3117,24 @@
       <c r="R13" s="7">
         <v>5.5197076887195801E-2</v>
       </c>
-      <c r="S13" s="71">
+      <c r="S13" s="7">
         <v>0.16872183008759201</v>
       </c>
-      <c r="T13" s="96">
+      <c r="T13" s="106">
         <v>11.651268115942001</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="85">
+      <c r="B14" s="128">
         <v>2208</v>
       </c>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="7">
@@ -3269,7 +3149,7 @@
       <c r="H14" s="8">
         <v>1.7378</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="18">
         <v>0.29980000000000001</v>
       </c>
       <c r="J14" s="18">
@@ -3281,10 +3161,10 @@
       <c r="L14" s="30">
         <v>1.21E-2</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="44">
         <v>5.9392274639489297E-2</v>
       </c>
-      <c r="N14" s="70">
+      <c r="N14" s="7">
         <v>3.9795417579180001</v>
       </c>
       <c r="O14" s="7">
@@ -3299,24 +3179,24 @@
       <c r="R14" s="7">
         <v>3.8833475246320401E-2</v>
       </c>
-      <c r="S14" s="71">
+      <c r="S14" s="7">
         <v>0.12162602686139</v>
       </c>
-      <c r="T14" s="96">
+      <c r="T14" s="106">
         <v>14.893115942028899</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="129">
         <v>2208</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="81" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="11">
@@ -3331,7 +3211,7 @@
       <c r="H15" s="12">
         <v>1.5427999999999999</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="20">
         <v>0.36259999999999998</v>
       </c>
       <c r="J15" s="20">
@@ -3343,10 +3223,10 @@
       <c r="L15" s="31">
         <v>1.77E-2</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="45">
         <v>6.5450022305551997E-2</v>
       </c>
-      <c r="N15" s="72">
+      <c r="N15" s="11">
         <v>4.5595640657056</v>
       </c>
       <c r="O15" s="11">
@@ -3361,24 +3241,24 @@
       <c r="R15" s="11">
         <v>5.57217118849248E-2</v>
       </c>
-      <c r="S15" s="73">
+      <c r="S15" s="11">
         <v>0.18042352577478901</v>
       </c>
-      <c r="T15" s="97">
+      <c r="T15" s="107">
         <v>12.720108695652099</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="127">
         <v>2208</v>
       </c>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="123" t="s">
+      <c r="D16" s="79" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="5">
@@ -3393,7 +3273,7 @@
       <c r="H16" s="6">
         <v>2.0466000000000002</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="17">
         <v>0.37080000000000002</v>
       </c>
       <c r="J16" s="17">
@@ -3405,10 +3285,10 @@
       <c r="L16" s="29">
         <v>1.35E-2</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="43">
         <v>6.7083358301588694E-2</v>
       </c>
-      <c r="N16" s="68">
+      <c r="N16" s="5">
         <v>5.39463398136549</v>
       </c>
       <c r="O16" s="5">
@@ -3423,24 +3303,24 @@
       <c r="R16" s="5">
         <v>9.3688270153325107E-2</v>
       </c>
-      <c r="S16" s="69">
+      <c r="S16" s="5">
         <v>0.33370389085396601</v>
       </c>
-      <c r="T16" s="95">
+      <c r="T16" s="105">
         <v>14.4442934782608</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="85">
+      <c r="B17" s="128">
         <v>2208</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="124" t="s">
+      <c r="D17" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="7">
@@ -3455,7 +3335,7 @@
       <c r="H17" s="8">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="18">
         <v>0.30620000000000003</v>
       </c>
       <c r="J17" s="18">
@@ -3467,10 +3347,10 @@
       <c r="L17" s="30">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M17" s="44">
         <v>3.9190178591716099E-2</v>
       </c>
-      <c r="N17" s="70">
+      <c r="N17" s="7">
         <v>4.1391046048725402</v>
       </c>
       <c r="O17" s="7">
@@ -3485,24 +3365,24 @@
       <c r="R17" s="7">
         <v>2.6465441819772499E-2</v>
       </c>
-      <c r="S17" s="71">
+      <c r="S17" s="7">
         <v>0.161192214111922</v>
       </c>
-      <c r="T17" s="96">
+      <c r="T17" s="106">
         <v>6.2119565217391299</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="85">
+      <c r="B18" s="128">
         <v>2208</v>
       </c>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="124" t="s">
+      <c r="D18" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="7">
@@ -3517,7 +3397,7 @@
       <c r="H18" s="8">
         <v>0.73040000000000005</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="18">
         <v>0.37040000000000001</v>
       </c>
       <c r="J18" s="18">
@@ -3529,10 +3409,10 @@
       <c r="L18" s="30">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="M18" s="52">
+      <c r="M18" s="44">
         <v>5.64571283285797E-2</v>
       </c>
-      <c r="N18" s="70">
+      <c r="N18" s="7">
         <v>5.0309871110745199</v>
       </c>
       <c r="O18" s="7">
@@ -3547,24 +3427,24 @@
       <c r="R18" s="7">
         <v>4.9333624644963901E-2</v>
       </c>
-      <c r="S18" s="71">
+      <c r="S18" s="7">
         <v>0.31285969918266598</v>
       </c>
-      <c r="T18" s="96">
+      <c r="T18" s="106">
         <v>10.3645833333333</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="85">
+      <c r="B19" s="128">
         <v>2208</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="124" t="s">
+      <c r="D19" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="7">
@@ -3579,7 +3459,7 @@
       <c r="H19" s="8">
         <v>0.76629999999999998</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="18">
         <v>0.36919999999999997</v>
       </c>
       <c r="J19" s="18">
@@ -3591,10 +3471,10 @@
       <c r="L19" s="30">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="M19" s="52">
+      <c r="M19" s="44">
         <v>5.6067025297435499E-2</v>
       </c>
-      <c r="N19" s="70">
+      <c r="N19" s="7">
         <v>5.0255307567815599</v>
       </c>
       <c r="O19" s="7">
@@ -3609,24 +3489,24 @@
       <c r="R19" s="7">
         <v>4.8617113223854799E-2</v>
       </c>
-      <c r="S19" s="71">
+      <c r="S19" s="7">
         <v>0.309430536976877</v>
       </c>
-      <c r="T19" s="96">
+      <c r="T19" s="106">
         <v>10.480072463768099</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="85">
+      <c r="B20" s="128">
         <v>2208</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="7">
@@ -3641,7 +3521,7 @@
       <c r="H20" s="8">
         <v>0.55510000000000004</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="18">
         <v>0.34860000000000002</v>
       </c>
       <c r="J20" s="18">
@@ -3653,10 +3533,10 @@
       <c r="L20" s="30">
         <v>7.6E-3</v>
       </c>
-      <c r="M20" s="52">
+      <c r="M20" s="44">
         <v>5.2441444681627501E-2</v>
       </c>
-      <c r="N20" s="70">
+      <c r="N20" s="7">
         <v>5.1785217815223197</v>
       </c>
       <c r="O20" s="7">
@@ -3671,24 +3551,24 @@
       <c r="R20" s="7">
         <v>6.8812840143898102E-2</v>
       </c>
-      <c r="S20" s="71">
+      <c r="S20" s="7">
         <v>0.35236725890931497</v>
       </c>
-      <c r="T20" s="96">
+      <c r="T20" s="106">
         <v>9.8197463768115902</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="85">
+      <c r="B21" s="128">
         <v>2208</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="124" t="s">
+      <c r="D21" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="7">
@@ -3703,7 +3583,7 @@
       <c r="H21" s="8">
         <v>1.8021</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="18">
         <v>0.36909999999999998</v>
       </c>
       <c r="J21" s="18">
@@ -3715,10 +3595,10 @@
       <c r="L21" s="30">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="M21" s="52">
+      <c r="M21" s="44">
         <v>6.4504293684154002E-2</v>
       </c>
-      <c r="N21" s="70">
+      <c r="N21" s="7">
         <v>5.1569500538234596</v>
       </c>
       <c r="O21" s="7">
@@ -3733,24 +3613,24 @@
       <c r="R21" s="7">
         <v>5.7945801271328201E-2</v>
       </c>
-      <c r="S21" s="71">
+      <c r="S21" s="7">
         <v>0.29195867350624899</v>
       </c>
-      <c r="T21" s="96">
+      <c r="T21" s="106">
         <v>13.5371376811594</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="86">
+      <c r="B22" s="129">
         <v>2208</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="125" t="s">
+      <c r="D22" s="81" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="11">
@@ -3765,7 +3645,7 @@
       <c r="H22" s="12">
         <v>1.7484999999999999</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="20">
         <v>0.4027</v>
       </c>
       <c r="J22" s="20">
@@ -3777,10 +3657,10 @@
       <c r="L22" s="31">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="M22" s="53">
+      <c r="M22" s="45">
         <v>6.7374050627871898E-2</v>
       </c>
-      <c r="N22" s="72">
+      <c r="N22" s="11">
         <v>4.7494683029958198</v>
       </c>
       <c r="O22" s="11">
@@ -3795,24 +3675,24 @@
       <c r="R22" s="11">
         <v>5.07183659338757E-2</v>
       </c>
-      <c r="S22" s="73">
+      <c r="S22" s="11">
         <v>0.20714473141657599</v>
       </c>
-      <c r="T22" s="97">
+      <c r="T22" s="107">
         <v>13.0819746376811</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="127">
         <v>2208</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="79" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="5">
@@ -3827,7 +3707,7 @@
       <c r="H23" s="6">
         <v>1.5154000000000001</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="17">
         <v>0.36840000000000001</v>
       </c>
       <c r="J23" s="17">
@@ -3839,10 +3719,10 @@
       <c r="L23" s="29">
         <v>1.32E-2</v>
       </c>
-      <c r="M23" s="51">
+      <c r="M23" s="43">
         <v>6.4318440579414202E-2</v>
       </c>
-      <c r="N23" s="68">
+      <c r="N23" s="5">
         <v>4.4063325813054801</v>
       </c>
       <c r="O23" s="5">
@@ -3857,24 +3737,24 @@
       <c r="R23" s="5">
         <v>5.3385742361979599E-2</v>
       </c>
-      <c r="S23" s="69">
+      <c r="S23" s="5">
         <v>0.17088877681654099</v>
       </c>
-      <c r="T23" s="95">
+      <c r="T23" s="105">
         <v>12.674365942028899</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="85">
+      <c r="B24" s="128">
         <v>2208</v>
       </c>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="7">
@@ -3889,7 +3769,7 @@
       <c r="H24" s="8">
         <v>2.1242000000000001</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="18">
         <v>0.3236</v>
       </c>
       <c r="J24" s="18">
@@ -3901,10 +3781,10 @@
       <c r="L24" s="30">
         <v>1.32E-2</v>
       </c>
-      <c r="M24" s="52">
+      <c r="M24" s="44">
         <v>6.8122567072380402E-2</v>
       </c>
-      <c r="N24" s="70">
+      <c r="N24" s="7">
         <v>4.2394881368650301</v>
       </c>
       <c r="O24" s="7">
@@ -3919,24 +3799,24 @@
       <c r="R24" s="7">
         <v>3.7928458793260802E-2</v>
       </c>
-      <c r="S24" s="71">
+      <c r="S24" s="7">
         <v>0.12419340581631701</v>
       </c>
-      <c r="T24" s="96">
+      <c r="T24" s="106">
         <v>16.370923913043399</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="85">
+      <c r="B25" s="128">
         <v>2208</v>
       </c>
-      <c r="C25" s="129" t="s">
+      <c r="C25" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="124" t="s">
+      <c r="D25" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="7">
@@ -3951,7 +3831,7 @@
       <c r="H25" s="8">
         <v>1.8223</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="18">
         <v>0.34789999999999999</v>
       </c>
       <c r="J25" s="18">
@@ -3963,10 +3843,10 @@
       <c r="L25" s="30">
         <v>1.55E-2</v>
       </c>
-      <c r="M25" s="52">
+      <c r="M25" s="44">
         <v>6.5245296976817205E-2</v>
       </c>
-      <c r="N25" s="70">
+      <c r="N25" s="7">
         <v>4.4517404172088897</v>
       </c>
       <c r="O25" s="7">
@@ -3981,24 +3861,24 @@
       <c r="R25" s="7">
         <v>4.9625377055560901E-2</v>
       </c>
-      <c r="S25" s="71">
+      <c r="S25" s="7">
         <v>0.15634280124375499</v>
       </c>
-      <c r="T25" s="96">
+      <c r="T25" s="106">
         <v>13.963315217391299</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="86">
+      <c r="B26" s="129">
         <v>2208</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="81" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="11">
@@ -4013,7 +3893,7 @@
       <c r="H26" s="12">
         <v>1.9276</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="20">
         <v>0.35039999999999999</v>
       </c>
       <c r="J26" s="20">
@@ -4025,10 +3905,10 @@
       <c r="L26" s="31">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="M26" s="53">
+      <c r="M26" s="45">
         <v>6.6530646007920094E-2</v>
       </c>
-      <c r="N26" s="72">
+      <c r="N26" s="11">
         <v>4.5117093750360899</v>
       </c>
       <c r="O26" s="11">
@@ -4043,24 +3923,24 @@
       <c r="R26" s="11">
         <v>4.6263345195729499E-2</v>
       </c>
-      <c r="S26" s="73">
+      <c r="S26" s="11">
         <v>0.152132312739201</v>
       </c>
-      <c r="T26" s="97">
+      <c r="T26" s="107">
         <v>14.253623188405699</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="84">
+      <c r="B27" s="127">
         <v>2208</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="79" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="5">
@@ -4075,7 +3955,7 @@
       <c r="H27" s="6">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="17">
         <v>0.33850000000000002</v>
       </c>
       <c r="J27" s="17">
@@ -4087,10 +3967,10 @@
       <c r="L27" s="29">
         <v>1.01E-2</v>
       </c>
-      <c r="M27" s="51">
+      <c r="M27" s="43">
         <v>4.5569581045756299E-2</v>
       </c>
-      <c r="N27" s="68">
+      <c r="N27" s="5">
         <v>4.16078605357007</v>
       </c>
       <c r="O27" s="5">
@@ -4105,24 +3985,24 @@
       <c r="R27" s="5">
         <v>6.3617289131346996E-2</v>
       </c>
-      <c r="S27" s="69">
+      <c r="S27" s="5">
         <v>0.17647058823529399</v>
       </c>
-      <c r="T27" s="95">
+      <c r="T27" s="105">
         <v>5.3962862318840497</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="85">
+      <c r="B28" s="128">
         <v>2208</v>
       </c>
-      <c r="C28" s="129" t="s">
+      <c r="C28" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="124" t="s">
+      <c r="D28" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="7">
@@ -4137,7 +4017,7 @@
       <c r="H28" s="8">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="18">
         <v>0.32490000000000002</v>
       </c>
       <c r="J28" s="18">
@@ -4149,10 +4029,10 @@
       <c r="L28" s="30">
         <v>1.26E-2</v>
       </c>
-      <c r="M28" s="52">
+      <c r="M28" s="44">
         <v>4.1030059075122201E-2</v>
       </c>
-      <c r="N28" s="70">
+      <c r="N28" s="7">
         <v>3.72484505330796</v>
       </c>
       <c r="O28" s="7">
@@ -4167,24 +4047,24 @@
       <c r="R28" s="7">
         <v>2.4270545194967401E-2</v>
       </c>
-      <c r="S28" s="71">
+      <c r="S28" s="7">
         <v>7.1665194346289707E-2</v>
       </c>
-      <c r="T28" s="96">
+      <c r="T28" s="106">
         <v>5.0756340579710102</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="86">
+      <c r="B29" s="129">
         <v>2208</v>
       </c>
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="81" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="11">
@@ -4199,7 +4079,7 @@
       <c r="H29" s="12">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="20">
         <v>0.36349999999999999</v>
       </c>
       <c r="J29" s="20">
@@ -4211,10 +4091,10 @@
       <c r="L29" s="31">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="M29" s="53">
+      <c r="M29" s="45">
         <v>5.0221533964430097E-2</v>
       </c>
-      <c r="N29" s="72">
+      <c r="N29" s="11">
         <v>4.4851975008960903</v>
       </c>
       <c r="O29" s="11">
@@ -4229,350 +4109,346 @@
       <c r="R29" s="11">
         <v>8.4173387096774105E-2</v>
       </c>
-      <c r="S29" s="73">
+      <c r="S29" s="11">
         <v>0.22395789116223699</v>
       </c>
-      <c r="T29" s="97">
+      <c r="T29" s="107">
         <v>6.2898550724637596</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="85">
+      <c r="B30" s="128">
         <v>2208</v>
       </c>
-      <c r="C30" s="129" t="s">
+      <c r="C30" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="124" t="s">
+      <c r="D30" s="121" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="7">
+        <v>2.1812999999999998</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2.3115000000000001</v>
+      </c>
+      <c r="G30" s="7">
+        <v>2.3214999999999999</v>
+      </c>
+      <c r="H30" s="8">
+        <v>2.3220999999999998</v>
+      </c>
+      <c r="I30" s="18">
+        <v>0.3488</v>
+      </c>
+      <c r="J30" s="18">
+        <v>0.1057</v>
+      </c>
+      <c r="K30" s="30">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="L30" s="30">
+        <v>1.21E-2</v>
+      </c>
+      <c r="M30" s="44">
+        <v>7.1806508296059002E-2</v>
+      </c>
+      <c r="N30" s="7">
+        <v>5.3201315224657604</v>
+      </c>
+      <c r="O30" s="7">
+        <v>8.08024566431674</v>
+      </c>
+      <c r="P30" s="7">
+        <v>9.4868864468035792</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>10.016402799434699</v>
+      </c>
+      <c r="R30" s="7">
+        <v>3.36194172634341E-2</v>
+      </c>
+      <c r="S30" s="7">
+        <v>0.26467508290185499</v>
+      </c>
+      <c r="T30" s="106">
+        <v>16.569746376811501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="131">
+        <v>2208</v>
+      </c>
+      <c r="C31" s="115"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="109">
         <v>1.9378</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="109">
         <v>2.0335999999999999</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="109">
         <v>2.0392000000000001</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H31" s="116">
         <v>2.0394999999999999</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I31" s="110">
         <v>0.2918</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J31" s="110">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K31" s="111">
         <v>2.81E-2</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L31" s="111">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="M30" s="52">
+      <c r="M31" s="118">
         <v>7.4774661842265694E-2</v>
       </c>
-      <c r="N30" s="76">
+      <c r="N31" s="132">
         <v>6.3600996360317499</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O31" s="132">
         <v>9.3737926162175498</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P31" s="132">
         <v>10.009302803632799</v>
       </c>
-      <c r="Q30" s="36">
+      <c r="Q31" s="133">
         <v>10.057464446653301</v>
       </c>
-      <c r="R30" s="7">
+      <c r="R31" s="109">
         <v>0.108380477320193</v>
       </c>
-      <c r="S30" s="77">
+      <c r="S31" s="132">
         <v>0.44864038718716098</v>
       </c>
-      <c r="T30" s="96">
+      <c r="T31" s="112">
         <v>22.3355978260869</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="85">
-        <v>2208</v>
-      </c>
-      <c r="C31" s="129" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="7">
-        <v>2.1812999999999998</v>
-      </c>
-      <c r="F31" s="7">
-        <v>2.3115000000000001</v>
-      </c>
-      <c r="G31" s="7">
-        <v>2.3214999999999999</v>
-      </c>
-      <c r="H31" s="8">
-        <v>2.3220999999999998</v>
-      </c>
-      <c r="I31" s="42">
-        <v>0.3488</v>
-      </c>
-      <c r="J31" s="18">
-        <v>0.1057</v>
-      </c>
-      <c r="K31" s="30">
-        <v>3.6700000000000003E-2</v>
-      </c>
-      <c r="L31" s="30">
-        <v>1.21E-2</v>
-      </c>
-      <c r="M31" s="52">
-        <v>7.1806508296059002E-2</v>
-      </c>
-      <c r="N31" s="70">
-        <v>5.3201315224657604</v>
-      </c>
-      <c r="O31" s="7">
-        <v>8.08024566431674</v>
-      </c>
-      <c r="P31" s="7">
-        <v>9.4868864468035792</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>10.016402799434699</v>
-      </c>
-      <c r="R31" s="7">
-        <v>3.36194172634341E-2</v>
-      </c>
-      <c r="S31" s="71">
-        <v>0.26467508290185499</v>
-      </c>
-      <c r="T31" s="96">
-        <v>16.569746376811501</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="133" t="s">
+      <c r="C32" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="134" t="s">
+      <c r="D32" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="7">
         <f>MAX(E2:E4)</f>
         <v>1.5732999999999999</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="7">
         <f t="shared" ref="F32:S32" si="0">MAX(F2:F4)</f>
         <v>1.6329</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="7">
         <f t="shared" si="0"/>
         <v>1.6365000000000001</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="8">
         <f t="shared" si="0"/>
         <v>1.6365000000000001</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="37">
         <f t="shared" si="0"/>
         <v>0.4516</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="18">
         <f t="shared" si="0"/>
         <v>0.14810000000000001</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="30">
         <f t="shared" si="0"/>
         <v>6.0600000000000001E-2</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L32" s="30">
         <f t="shared" si="0"/>
         <v>2.87E-2</v>
       </c>
-      <c r="M32" s="51">
+      <c r="M32" s="44">
         <f t="shared" si="0"/>
         <v>7.4758471320869893E-2</v>
       </c>
-      <c r="N32" s="68">
+      <c r="N32" s="54">
         <f t="shared" si="0"/>
         <v>6.4934999911856899</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="7">
         <f t="shared" si="0"/>
         <v>9.66960434778475</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="7">
         <f t="shared" si="0"/>
         <v>10.4029545512107</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="8">
         <f t="shared" si="0"/>
         <v>10.4673375008643</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="7">
         <f t="shared" si="0"/>
         <v>0.159598820058997</v>
       </c>
-      <c r="S32" s="69">
+      <c r="S32" s="55">
         <f t="shared" si="0"/>
         <v>0.64655065103194098</v>
       </c>
-      <c r="T32" s="90" t="s">
+      <c r="T32" s="68" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="109" t="s">
+      <c r="B33" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="135" t="s">
+      <c r="C33" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="136" t="s">
+      <c r="D33" s="88" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" ref="E33:S33" si="1">MAX(E6:E31)</f>
+        <f>MAX(E6:E31)</f>
         <v>2.3408000000000002</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="1"/>
+        <f>MAX(F6:F31)</f>
         <v>2.5102000000000002</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="1"/>
+        <f>MAX(G6:G31)</f>
         <v>2.5219999999999998</v>
       </c>
-      <c r="H33" s="37">
-        <f t="shared" si="1"/>
+      <c r="H33" s="36">
+        <f>MAX(H6:H31)</f>
         <v>2.5230000000000001</v>
       </c>
-      <c r="I33" s="44">
-        <f t="shared" si="1"/>
+      <c r="I33" s="38">
+        <f>MAX(I6:I31)</f>
         <v>0.41310000000000002</v>
       </c>
       <c r="J33" s="19">
-        <f t="shared" si="1"/>
+        <f>MAX(J6:J31)</f>
         <v>0.14349999999999999</v>
       </c>
       <c r="K33" s="35">
-        <f t="shared" si="1"/>
+        <f>MAX(K6:K31)</f>
         <v>5.0099999999999999E-2</v>
       </c>
       <c r="L33" s="35">
-        <f t="shared" si="1"/>
+        <f>MAX(L6:L31)</f>
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="M33" s="55">
-        <f t="shared" si="1"/>
+      <c r="M33" s="47">
+        <f>MAX(M6:M31)</f>
         <v>8.0734113337266794E-2</v>
       </c>
-      <c r="N33" s="78">
-        <f t="shared" si="1"/>
+      <c r="N33" s="56">
+        <f>MAX(N6:N31)</f>
         <v>6.3600996360317499</v>
       </c>
       <c r="O33" s="10">
-        <f t="shared" si="1"/>
+        <f>MAX(O6:O31)</f>
         <v>9.3737926162175498</v>
       </c>
       <c r="P33" s="10">
-        <f t="shared" si="1"/>
+        <f>MAX(P6:P31)</f>
         <v>10.009302803632799</v>
       </c>
-      <c r="Q33" s="37">
-        <f t="shared" si="1"/>
+      <c r="Q33" s="36">
+        <f>MAX(Q6:Q31)</f>
         <v>10.057464446653301</v>
       </c>
       <c r="R33" s="10">
-        <f t="shared" si="1"/>
+        <f>MAX(R6:R31)</f>
         <v>0.121468455704642</v>
       </c>
-      <c r="S33" s="79">
-        <f t="shared" si="1"/>
+      <c r="S33" s="57">
+        <f>MAX(S6:S31)</f>
         <v>0.44864038718716098</v>
       </c>
-      <c r="T33" s="91" t="s">
+      <c r="T33" s="68" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="137" t="s">
+      <c r="C34" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="138" t="s">
+      <c r="D34" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="56">
+      <c r="E34" s="48">
         <v>2.4237000000000002</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="48">
         <v>2.6244000000000001</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="48">
         <v>2.6472000000000002</v>
       </c>
-      <c r="H34" s="57">
+      <c r="H34" s="49">
         <v>2.65</v>
       </c>
-      <c r="I34" s="58">
+      <c r="I34" s="50">
         <v>0.34079999999999999</v>
       </c>
-      <c r="J34" s="59">
+      <c r="J34" s="51">
         <v>0.1235</v>
       </c>
-      <c r="K34" s="60">
+      <c r="K34" s="52">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="L34" s="60">
+      <c r="L34" s="52">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="M34" s="61">
+      <c r="M34" s="53">
         <v>8.3141634045726595E-2</v>
       </c>
-      <c r="N34" s="80">
+      <c r="N34" s="58">
         <v>6.5893229032515404</v>
       </c>
-      <c r="O34" s="56">
+      <c r="O34" s="48">
         <v>9.7423257815986002</v>
       </c>
-      <c r="P34" s="56">
+      <c r="P34" s="48">
         <v>10.4100912659437</v>
       </c>
-      <c r="Q34" s="57">
+      <c r="Q34" s="49">
         <v>10.4449996225368</v>
       </c>
-      <c r="R34" s="56">
+      <c r="R34" s="48">
         <v>0.16663044790534801</v>
       </c>
-      <c r="S34" s="81">
+      <c r="S34" s="59">
         <v>0.67014384819424599</v>
       </c>
-      <c r="T34" s="92" t="s">
+      <c r="T34" s="69" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4592,24 +4468,24 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="132" t="s">
+      <c r="A40" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="132"/>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="132"/>
-      <c r="P40" s="132"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -4657,24 +4533,24 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="131" t="s">
+      <c r="A51" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="131"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="131"/>
-      <c r="K51" s="131"/>
-      <c r="L51" s="131"/>
-      <c r="M51" s="131"/>
-      <c r="N51" s="131"/>
-      <c r="O51" s="131"/>
-      <c r="P51" s="131"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="91"/>
+      <c r="N51" s="91"/>
+      <c r="O51" s="91"/>
+      <c r="P51" s="91"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
